--- a/도서대여 프로젝트/도서정보-테이블명세 MySQL.xlsx
+++ b/도서대여 프로젝트/도서정보-테이블명세 MySQL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="회원정보테이블" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="172">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -182,7 +182,179 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(20)</t>
+    <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_ccode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_acode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_pages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사정보_V1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_company_v1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사 정보를 저장할 Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요장르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_ceo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_genre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자정보_V1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자 정보를 저장할 Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_genre</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -190,23 +362,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(125)</t>
+    <t>br_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_edate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_bcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_buyer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_bcode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -214,27 +414,183 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고정문자열(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_ccode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_acode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_pages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
+    <t>회원코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_isbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_books</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_isbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_sdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK 열이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK 테이블 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL ?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서대여 정보를 저장할 Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>callor@callor.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_book_rent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 명세서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서대여정보_V1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_brith</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -242,51 +598,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사정보_V1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_company_v1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사 정보를 저장할 Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표자명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요장르</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(30)</t>
+    <t>bu_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서대여 회원 정보 Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ybhag1005@daum.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_buyer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_author</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -294,406 +662,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cp_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_ceo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_addr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_genre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자정보_V1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자 정보를 저장할 Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>au_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>au_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_addr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_genre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_edate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반납일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu_bcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_buyer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_bcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정문자열(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu_isbn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_books</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_isbn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_sdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK 열이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK 테이블 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외래키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL ?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오라클형식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 형식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>열 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서대여 정보를 저장할 Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>callor@callor.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_book_rent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>system</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 명세서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서대여정보_V1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu_addr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu_brith</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외래키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오라클형식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서대여 회원 정보 Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ybhag1005@daum.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_buyer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_company</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>고정문자열(13)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -711,6 +683,38 @@
   </si>
   <si>
     <t>fk_author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2138,10 +2142,10 @@
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>14</v>
@@ -2150,7 +2154,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="26" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="27">
@@ -2158,7 +2162,7 @@
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2166,18 +2170,18 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="29" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="30" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="19">
@@ -2189,7 +2193,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -2203,28 +2207,28 @@
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>4</v>
@@ -2241,16 +2245,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -2266,19 +2270,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -2291,19 +2295,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -2316,16 +2320,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -2339,16 +2343,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -3199,19 +3203,19 @@
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="27">
@@ -3219,26 +3223,26 @@
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="29" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="30" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="19">
@@ -3247,10 +3251,10 @@
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -3264,37 +3268,37 @@
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3302,20 +3306,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3327,19 +3331,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -3352,29 +3356,29 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L8" s="18"/>
     </row>
@@ -3383,29 +3387,29 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L9" s="18"/>
     </row>
@@ -3414,16 +3418,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -3437,16 +3441,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -3628,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4285,7 +4289,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>14</v>
@@ -4310,7 +4314,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4333,7 +4337,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -4385,16 +4389,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -4410,16 +4414,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>21</v>
@@ -4435,16 +4439,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -4458,16 +4462,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -4481,16 +4485,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="F10" s="12" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -4688,7 +4692,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5344,7 +5348,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>14</v>
@@ -5369,7 +5373,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5392,7 +5396,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -5444,13 +5448,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>36</v>
@@ -5469,16 +5473,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>21</v>
@@ -5494,16 +5498,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -5517,16 +5521,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -5540,16 +5544,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -5563,16 +5567,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -5754,8 +5758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6539,13 +6543,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>21</v>
@@ -6561,29 +6565,29 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L8" s="18"/>
     </row>
@@ -6592,29 +6596,29 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L9" s="18"/>
     </row>
@@ -6623,7 +6627,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -6632,7 +6636,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -6649,13 +6653,13 @@
         <v>30</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -6672,13 +6676,13 @@
         <v>29</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
